--- a/public/templates/template-checksheet-eyewasher.xlsx
+++ b/public/templates/template-checksheet-eyewasher.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_DATA\itd.magang01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8242154E-C4F8-4415-8BF4-D1BB92285D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F7429-D502-48B4-9CD6-3E4E794C99B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eye Washer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Eye Washer'!$A$1:$R$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>TAHUN :</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>No . Reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>NO.FORM: FRM-MS-S15-081-00</t>
@@ -46,6 +52,9 @@
     <t>BULAN</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pijakan </t>
   </si>
   <si>
@@ -83,19 +92,24 @@
   </si>
   <si>
     <t>Paraf SPV</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -110,13 +124,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -137,18 +144,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
+        <fgColor rgb="FFFFD966"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
+        <fgColor rgb="FFFBE5D6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -157,66 +164,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -240,43 +256,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -297,8 +276,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -330,38 +311,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -369,6 +320,108 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -382,54 +435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -446,15 +451,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -517,151 +513,159 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,13 +690,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -730,13 +734,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -773,22 +777,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2038350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 20">
+        <xdr:cNvPr id="5" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,7 +809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1743075" cy="476250"/>
+          <a:ext cx="1743075" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,23 +820,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>86592</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>307564</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>416624</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>259773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C329F5E-29AC-F973-3DEF-32CC4490A3A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500B98CE-2CE3-0689-51CA-3B365D9D9AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9750137" y="69273"/>
-          <a:ext cx="1190791" cy="866896"/>
+          <a:off x="9559636" y="121228"/>
+          <a:ext cx="1454727" cy="1125681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,22 +871,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1662544</xdr:colOff>
+      <xdr:colOff>1420091</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>415635</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>435393</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>187681</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4BF8D2-688D-BCC2-180F-F176B085880A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC089F82-B816-89A9-9C97-B15823C80E27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -904,8 +908,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4416135" y="69272"/>
-          <a:ext cx="3723409" cy="885666"/>
+          <a:off x="4173682" y="173182"/>
+          <a:ext cx="4222817" cy="1004456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1241,566 +1245,582 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="44" style="8" customWidth="1"/>
-    <col min="6" max="17" width="7.140625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" style="8" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="39" t="s">
+    <row r="1" spans="2:18" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="4" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+    </row>
+    <row r="6" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="C7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
-    </row>
-    <row r="6" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="3">
+      <c r="E7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I8" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K8" s="4">
         <v>6</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L8" s="4">
         <v>7</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M8" s="4">
         <v>8</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N8" s="4">
         <v>9</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O8" s="4">
         <v>10</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P8" s="4">
         <v>11</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q8" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="27">
+    <row r="9" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="27">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="24"/>
+    </row>
+    <row r="10" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
-      <c r="C10" s="27">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="27">
         <v>2</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="26"/>
-    </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="27">
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="27">
         <v>3</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="24"/>
-    </row>
-    <row r="14" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="26"/>
-    </row>
-    <row r="16" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
-      <c r="C16" s="27">
-        <v>4</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="25"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="26"/>
+      <c r="C18" s="27">
+        <v>4</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
-      <c r="C19" s="27">
-        <v>5</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="26"/>
     </row>
     <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="26"/>
-    </row>
-    <row r="22" spans="2:17" s="5" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="2:17" s="5" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+      <c r="C21" s="27">
+        <v>5</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" spans="2:17" s="5" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="24"/>
+    </row>
+    <row r="22" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="2:17" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
-    </row>
-    <row r="25" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="2:17" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="2:17" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
@@ -1821,122 +1841,164 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
-    </row>
-    <row r="30" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="B7:B21"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="B25:Q29"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:Q23"/>
+  <mergeCells count="98">
+    <mergeCell ref="B2:L5"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="B27:Q31"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:Q26"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>